--- a/survey_data/survey_data_and_results_with_code/All_data.xlsx
+++ b/survey_data/survey_data_and_results_with_code/All_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didif\Documents\NTHU Courses\Wireless Multimedia Networking Technologies and Applications\Term Project\VIST_Project\survey_data\survey_data_and_results_with_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BC9C5D-A5DA-4C40-9991-6463E3E510C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE506092-3EC8-42A5-BE7D-92036C525DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,13 +542,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2134,7 +2134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B79082-C5BA-F644-AC1D-216F893AA6E7}">
   <dimension ref="A1:N646"/>
   <sheetViews>
-    <sheetView topLeftCell="A496" workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="R562" sqref="R562"/>
     </sheetView>
   </sheetViews>
@@ -29464,8 +29464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4811FFFE-0A61-F949-81F6-08A19998353C}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -29504,38 +29504,38 @@
       <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11" t="s">
+      <c r="O1" s="15"/>
+      <c r="P1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="15"/>
+      <c r="S1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="X1" s="11" t="s">
+      <c r="V1" s="15"/>
+      <c r="X1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11" t="s">
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="AA1" s="11"/>
+      <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
@@ -29559,52 +29559,52 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="S2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="U2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="13" t="s">
+      <c r="U2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -29637,7 +29637,7 @@
         <f>COUNTIF($C$2:$C$21,I3)</f>
         <v>5</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="4">
@@ -29658,14 +29658,14 @@
         <f>COUNTIF($D$22:$D$44,P3)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="T3" s="4">
         <f>COUNTIF($E$2:$E$21,S3)</f>
         <v>12</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="4">
@@ -29737,14 +29737,14 @@
         <f t="shared" ref="Q4:Q7" si="2">COUNTIF($D$22:$D$44,P4)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="T4" s="4">
         <f>COUNTIF($E$2:$E$21,S4)</f>
         <v>8</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="U4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="V4" s="4">
@@ -29792,7 +29792,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J4:J10" si="5">COUNTIF($C$2:$C$21,I5)</f>
+        <f t="shared" ref="J5:J10" si="5">COUNTIF($C$2:$C$21,I5)</f>
         <v>1</v>
       </c>
       <c r="K5" s="6"/>
@@ -30125,14 +30125,14 @@
         <f>SUM(L3:L10)</f>
         <v>23</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11" t="s">
+      <c r="R11" s="15"/>
+      <c r="S11" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="T11" s="11"/>
+      <c r="T11" s="15"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
@@ -30156,14 +30156,14 @@
       <c r="G12">
         <v>4</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="11" t="s">
         <v>109</v>
       </c>
       <c r="R12" s="4">
         <f>AVERAGE(F2:F21)</f>
         <v>27.75</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="S12" s="11" t="s">
         <v>109</v>
       </c>
       <c r="T12" s="4">
@@ -30193,14 +30193,14 @@
       <c r="G13">
         <v>3</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="11" t="s">
         <v>110</v>
       </c>
       <c r="R13" s="4">
         <f>_xlfn.STDEV.P(F2:F21)</f>
         <v>4.9787046508102888</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="S13" s="11" t="s">
         <v>110</v>
       </c>
       <c r="T13" s="4">
@@ -30230,14 +30230,14 @@
       <c r="G14">
         <v>4</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="Q14" s="11" t="s">
         <v>111</v>
       </c>
       <c r="R14" s="4">
         <f>MIN(F2:F21)</f>
         <v>21</v>
       </c>
-      <c r="S14" s="12" t="s">
+      <c r="S14" s="11" t="s">
         <v>111</v>
       </c>
       <c r="T14" s="4">
@@ -30267,14 +30267,14 @@
       <c r="G15">
         <v>4</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="11" t="s">
         <v>112</v>
       </c>
       <c r="R15" s="4">
         <f>MAX(F2:F21)</f>
         <v>41</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="S15" s="11" t="s">
         <v>112</v>
       </c>
       <c r="T15" s="4">
@@ -30973,7 +30973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F35100-D047-964A-8E94-E54F03C82669}">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
